--- a/docs/Pre Code In/Refs.xlsx
+++ b/docs/Pre Code In/Refs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/GDrive_PradhapGanesanJava/pradhapganesanj-gitrepo/pg-notes/docs/Pre Code In/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE58BB-07C9-CB48-B8D1-01AD97FED75E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1201C1-6C6D-484E-B384-DFABB7CD29B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{90F13488-779E-D74C-BA01-9697E1E33C98}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{90F13488-779E-D74C-BA01-9697E1E33C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prep Materials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://github.com/bregman-arie/computer-networking/tree/master/videos</t>
   </si>
@@ -46,13 +47,51 @@
   </si>
   <si>
     <t xml:space="preserve">https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-046j-introduction-to-algorithms-sma-5503-fall-2005/video-lectures/ </t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t>Systems Design</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Introduction to Algorithms, 3rd Edition (MIT Press) (a.k.a CLRS)</t>
+  </si>
+  <si>
+    <t>How to Solve It (by George Polya and John H. Conway)</t>
+  </si>
+  <si>
+    <t>Introduction to Information Retrieval, 1st Edition (by Manning et al)</t>
+  </si>
+  <si>
+    <t>Operating System Concepts, 9th Edition (by Silberschatz et al)</t>
+  </si>
+  <si>
+    <t>Computer Networking: A Top-Down Approach, 7th Edition (by James Kurose and Keith Ross)</t>
+  </si>
+  <si>
+    <t>Algorithm Design, 1st Edition (by Jon Kleinberg and Eva Tardos)
+The Algorithm Design Manual, 2nd Edition (by Steven Skiena)
+Programming Pearls, 2nd Edition (by Jon Bently)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +106,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,9 +142,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4CF77-BED6-0343-9ACB-FD5C324C2539}">
   <dimension ref="C2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +527,82 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1907C07D-C658-2242-ADF7-406E445472B6}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="74" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.amazon.com/Introduction-Algorithms-3rd-MIT-Press/dp/0262033844" xr:uid="{ED4F3EB5-E034-1446-87ED-0D0DD096845A}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.amazon.com/How-Solve-Mathematical-Princeton-Science/dp/069116407X" xr:uid="{31CDCA31-F4CB-834A-92F2-0879A0D4F967}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://www.amazon.com/Algorithm-Design-Jon-Kleinberg/dp/0321295358" xr:uid="{8DB34DE7-AAF1-8D4B-ABC7-C553B8AA960B}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.amazon.com/Introduction-Information-Retrieval-Christopher-Manning/dp/0521865719" xr:uid="{3E794066-DC2C-5940-8A3B-EB7315BB7B4A}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.amazon.com/Operating-System-Concepts-Abraham-Silberschatz/dp/1118063333" xr:uid="{07EB4B00-F124-144D-8D38-69D3EEF5AD03}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.amazon.com/Computer-Networking-Top-Down-Approach-7th/dp/0133594149" xr:uid="{338D5E98-A5BC-CC4A-9798-F19DAD552F44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Pre Code In/Refs.xlsx
+++ b/docs/Pre Code In/Refs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/GDrive_PradhapGanesanJava/pradhapganesanj-gitrepo/pg-notes/docs/Pre Code In/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1201C1-6C6D-484E-B384-DFABB7CD29B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D4440-4BBF-A746-B8A8-354EF3FD725F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{90F13488-779E-D74C-BA01-9697E1E33C98}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{90F13488-779E-D74C-BA01-9697E1E33C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://github.com/bregman-arie/computer-networking/tree/master/videos</t>
   </si>
@@ -85,6 +85,24 @@
     <t>Algorithm Design, 1st Edition (by Jon Kleinberg and Eva Tardos)
 The Algorithm Design Manual, 2nd Edition (by Steven Skiena)
 Programming Pearls, 2nd Edition (by Jon Bently)</t>
+  </si>
+  <si>
+    <t>https://github.com/fishermandong/books</t>
+  </si>
+  <si>
+    <t>https://github.com/djtrack16/thyme/tree/master/computer%20science</t>
+  </si>
+  <si>
+    <t>https://github.com/shishougang/Programming-Pearls</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>https://ocw.mit.edu/courses/audio-video-courses/</t>
   </si>
 </sst>
 </file>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB4CF77-BED6-0343-9ACB-FD5C324C2539}">
-  <dimension ref="C2:C8"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,39 +498,65 @@
     <col min="3" max="3" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -524,6 +568,10 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{B6351497-DF06-5A4E-9B9D-2F3FC77DD271}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{621DD683-E44A-0E4F-98C4-00E243ED946E}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{BBC87A22-F21B-C147-B08C-0CE4EF3D3FB7}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3D5B7B1C-C17B-694F-B5E7-2C889615EFE5}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{7F8EFF34-9B6F-0441-BBBA-5766E7E477B6}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{50254071-AD03-B849-A6F1-09EEA1AA53D6}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{AA20B4E2-612C-5941-A75B-A6C2A0B21B53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1907C07D-C658-2242-ADF7-406E445472B6}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
